--- a/inst/models/markov_medium/model.xlsx
+++ b/inst/models/markov_medium/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/markov_medium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC9BFDB-B21D-7346-9C8A-AB493134F2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8149C4E3-C9AA-0241-B5FA-24C8C7131E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="states" sheetId="15" r:id="rId5"/>
     <sheet name="transitions" sheetId="17" r:id="rId6"/>
     <sheet name="values" sheetId="19" r:id="rId7"/>
-    <sheet name="trees" sheetId="25" r:id="rId8"/>
+    <sheet name="summaries" sheetId="27" r:id="rId8"/>
+    <sheet name="trees" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="187">
   <si>
     <t>timeframe</t>
   </si>
@@ -432,15 +433,6 @@
     <t>palliative_util * cycle_length_years</t>
   </si>
   <si>
-    <t>sum(ae_incidence$Checkimab * ae_util$Disutility * ae_util$Duration)</t>
-  </si>
-  <si>
-    <t>sum(ae_incidence$Chemoplatin * ae_util$Disutility * ae_util$Duration)</t>
-  </si>
-  <si>
-    <t>sum(ae_incidence$Lenrastim * ae_util$Disutility * ae_util$Duration)</t>
-  </si>
-  <si>
     <t>sum(ae_incidence$Checkimab * ae_cost$Cost)</t>
   </si>
   <si>
@@ -577,6 +569,39 @@
   </si>
   <si>
     <t>ifelse(state_week &gt; 8, C, 0)</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>life-years</t>
+  </si>
+  <si>
+    <t>qalys</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>init_lys, hsct_lys, post_hsct_lys, l1_maint_lys, l2_rescue_lys, l2_maint_lys, palliative_lys</t>
+  </si>
+  <si>
+    <t>init_qalys, hsct_qalys, post_hsct_qalys, l1_maint_qalys, l2_rescue_qalys, l2_maint_qalys, palliative_qalys, ae_qalys</t>
+  </si>
+  <si>
+    <t>cost_ae, cost_routine_init, cost_routine_l1m, cost_routine_l2r, cost_routine_l2m, cost_routine_hsct, cost_routine_psthsct, cost_routine_pall, cost_med_init, cost_med_l1m, cost_med_l2r, cost_med_l2m, cost_med_post_hsct, cost_hsct</t>
+  </si>
+  <si>
+    <t>sum(ae_incidence$Lenrastim * ae_util$Disutility * ae_util$Duration)/365</t>
+  </si>
+  <si>
+    <t>sum(ae_incidence$Chemoplatin * ae_util$Disutility * ae_util$Duration)/365</t>
+  </si>
+  <si>
+    <t>sum(ae_incidence$Checkimab * ae_util$Disutility * ae_util$Duration)/365</t>
+  </si>
+  <si>
+    <t>ae_qaly_dec_sum * -1</t>
   </si>
 </sst>
 </file>
@@ -803,7 +828,153 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2000,116 +2171,129 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FB90E4A-B701-9349-A2FF-9FA1A4AA80AF}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FB90E4A-B701-9349-A2FF-9FA1A4AA80AF}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="A1:B11" xr:uid="{E95DCB53-1EAD-4C42-A79B-94CAA67662E9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{047CA166-C426-8945-9CE9-15BAE71AF547}" name="setting" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{3EC8FA45-F60E-DB40-98AB-411C79177ED2}" name="value" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{047CA166-C426-8945-9CE9-15BAE71AF547}" name="setting" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{3EC8FA45-F60E-DB40-98AB-411C79177ED2}" name="value" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H575" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H575" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
   <autoFilter ref="A1:H575" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{63526D68-1716-6448-B99B-CEBB86C8242D}" name="description" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{AAB4E451-EEBB-A044-8AD0-9290DF1E2375}" name="strategy" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{3D31035A-B4B1-B64A-87FB-CCC8C775DF25}" name="group" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{427DFF91-8F93-0145-9131-C95DC4252B95}" name="formula" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{10971855-F585-B248-B675-EED7430FEFA2}" name="sampling" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{BFC96336-E3CF-2440-BE04-07C88F5381BB}" name="source" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{63526D68-1716-6448-B99B-CEBB86C8242D}" name="description" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{AAB4E451-EEBB-A044-8AD0-9290DF1E2375}" name="strategy" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{3D31035A-B4B1-B64A-87FB-CCC8C775DF25}" name="group" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{427DFF91-8F93-0145-9131-C95DC4252B95}" name="formula" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{10971855-F585-B248-B675-EED7430FEFA2}" name="sampling" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{BFC96336-E3CF-2440-BE04-07C88F5381BB}" name="source" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{848A7D5C-EB27-7A4F-89E3-BE69E0713E83}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{848A7D5C-EB27-7A4F-89E3-BE69E0713E83}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:E5" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D45418EA-2F30-AD4B-9A80-81EA7CFFD3A6}" name="name" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{F15BE751-2E1F-6D45-B6CA-4B36A3DBAF1F}" name="display_name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{2DE37434-05F3-2C49-8B39-6141D82E12D4}" name="description" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{921E3B01-3DE0-B949-9ECA-84145DD4961B}" name="weight" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{2C5B087B-AA5D-8044-9269-45693F645B8A}" name="enabled" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{D45418EA-2F30-AD4B-9A80-81EA7CFFD3A6}" name="name" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{F15BE751-2E1F-6D45-B6CA-4B36A3DBAF1F}" name="display_name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{2DE37434-05F3-2C49-8B39-6141D82E12D4}" name="description" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{921E3B01-3DE0-B949-9ECA-84145DD4961B}" name="weight" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{2C5B087B-AA5D-8044-9269-45693F645B8A}" name="enabled" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3735BD8-BE90-F145-B9D1-6F21AD4EC4DD}" name="Table48" displayName="Table48" ref="A1:D16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3735BD8-BE90-F145-B9D1-6F21AD4EC4DD}" name="Table48" displayName="Table48" ref="A1:D16" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:D16" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2109DA5-F8C7-1B48-8FA8-9CE2A6E54806}" name="name" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{78BE1725-4B12-FA40-9F4C-A8B91618D230}" name="display_name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{EB0ED736-D7D3-6D4A-80D8-FFDFD7676DEB}" name="description" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{CE38F532-648B-8E47-9229-7AE2F2A5A3BF}" name="enabled" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{D2109DA5-F8C7-1B48-8FA8-9CE2A6E54806}" name="name" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{78BE1725-4B12-FA40-9F4C-A8B91618D230}" name="display_name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{EB0ED736-D7D3-6D4A-80D8-FFDFD7676DEB}" name="description" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{CE38F532-648B-8E47-9229-7AE2F2A5A3BF}" name="enabled" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A04C3E6A-433E-0545-80A3-CBB5A6412F2F}" name="Table483" displayName="Table483" ref="A1:H59" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A04C3E6A-433E-0545-80A3-CBB5A6412F2F}" name="Table483" displayName="Table483" ref="A1:H59" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:H59" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{11FBCC06-DBFA-A941-9390-FDA6DFC2DF08}" name="name" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F1165C82-7EB6-3C4E-A6D0-9C7580824800}" name="display_name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{921BCE85-2052-2041-AA5B-3EF268AF0D24}" name="description" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{11FBCC06-DBFA-A941-9390-FDA6DFC2DF08}" name="name" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{F1165C82-7EB6-3C4E-A6D0-9C7580824800}" name="display_name" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{921BCE85-2052-2041-AA5B-3EF268AF0D24}" name="description" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{C80C7590-8767-2844-BE04-8DED1FE1D657}" name="initial_probability"/>
     <tableColumn id="7" xr3:uid="{B9A684F9-BC62-284E-89EE-1142A552E18D}" name="state_group"/>
     <tableColumn id="8" xr3:uid="{88DA97B5-C90D-B744-B0A5-283879E36586}" name="share_state_time"/>
     <tableColumn id="6" xr3:uid="{A2855E5E-974C-BC49-8A0D-412678CF7025}" name="state_cycle_limit"/>
-    <tableColumn id="3" xr3:uid="{F3470966-7A21-5646-A493-EB3471A72394}" name="state_cycle_limit_unit" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F3470966-7A21-5646-A493-EB3471A72394}" name="state_cycle_limit_unit" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B6E7DE9-CD7F-6E42-B919-E2DF8C38677A}" name="Table46" displayName="Table46" ref="A1:C834" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B6E7DE9-CD7F-6E42-B919-E2DF8C38677A}" name="Table46" displayName="Table46" ref="A1:C834" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:C834" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{3643A0C0-1026-FE40-928C-1466B6129A34}" name="from" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{FCBCD6F9-C7A9-0541-A8CE-8C5A36C85513}" name="to" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{1DD2E99C-F1FD-2A44-BC9A-ED02B82B9DBB}" name="formula" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3643A0C0-1026-FE40-928C-1466B6129A34}" name="from" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{FCBCD6F9-C7A9-0541-A8CE-8C5A36C85513}" name="to" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{1DD2E99C-F1FD-2A44-BC9A-ED02B82B9DBB}" name="formula" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F298" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F298" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A1:F298" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
     <tableColumn id="6" xr3:uid="{0D833B11-05C8-C344-9243-E8CE8445DA4F}" name="destination"/>
-    <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{675BB377-6413-AB41-B01E-1631A262CF09}" name="Table179" displayName="Table179" ref="A1:D298" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D298" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{AD0711B2-291E-C648-84E5-7BFD5EA3D942}" name="name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B6B7A7BA-93C6-C441-BB9D-441DF0E08D33}" name="display_name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{92422A5F-28A1-CF44-A634-BC3211BA40EB}" name="description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5D155D6D-CFFF-C84B-B95F-3C769EFAD6E0}" name="values" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:H21" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5A92BCCF-2D48-7D49-BC23-029150AE8ABB}" name="name" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{AD92914F-B30F-CE49-9D84-7B07FD950E75}" name="display_name" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{AC4425F3-F763-3646-9F56-DCDFD124A4D0}" name="description" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2930608C-B19F-C641-8BE7-0C18493B68D0}" name="node" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BCD7B83C-5C0C-9546-A895-99F1E3EA4FFD}" name="parent" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5A92BCCF-2D48-7D49-BC23-029150AE8ABB}" name="name" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{AD92914F-B30F-CE49-9D84-7B07FD950E75}" name="display_name" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{AC4425F3-F763-3646-9F56-DCDFD124A4D0}" name="description" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{2930608C-B19F-C641-8BE7-0C18493B68D0}" name="node" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BCD7B83C-5C0C-9546-A895-99F1E3EA4FFD}" name="parent" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2529,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256F5870-E244-6849-9316-9568A14419E4}">
   <dimension ref="A1:H575"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" topLeftCell="B31" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3240,424 +3424,424 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
         <v>71</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
         <v>71</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -9063,8 +9247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C4CBAC-B29D-6645-89C8-9E5B5D8E4D46}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9143,9 +9327,7 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>52</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>85</v>
       </c>
@@ -9189,9 +9371,7 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>52</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>85</v>
       </c>
@@ -9458,7 +9638,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9490,7 +9670,7 @@
         <v>78</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9501,7 +9681,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9512,7 +9692,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9523,7 +9703,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -9534,10 +9714,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -9600,7 +9780,7 @@
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9611,7 +9791,7 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9622,7 +9802,7 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9633,7 +9813,7 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9747,8 +9927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D78FB-8401-9E4C-9EB5-A7C336F3C948}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10029,7 +10209,7 @@
         <v>108</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -10043,7 +10223,7 @@
         <v>109</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -10179,7 +10359,7 @@
         <v>78</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -10196,7 +10376,7 @@
         <v>79</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -10213,7 +10393,7 @@
         <v>80</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -10230,7 +10410,7 @@
         <v>81</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -10247,7 +10427,7 @@
         <v>83</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -10276,6 +10456,164 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A07347-94FF-4741-8D96-FF3FEFB38D57}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7FBD6-A0DC-8E4C-95D4-7A1E357C0E0B}">
   <dimension ref="A1:J7"/>
   <sheetViews>

--- a/inst/models/markov_medium/model.xlsx
+++ b/inst/models/markov_medium/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/markov_medium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8149C4E3-C9AA-0241-B5FA-24C8C7131E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BEF77E-E1FF-1E45-BEA9-03D33A259B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="192">
   <si>
     <t>timeframe</t>
   </si>
@@ -602,6 +602,21 @@
   </si>
   <si>
     <t>ae_qaly_dec_sum * -1</t>
+  </si>
+  <si>
+    <t>400 * cycle_length_months</t>
+  </si>
+  <si>
+    <t>200 * cycle_length_months</t>
+  </si>
+  <si>
+    <t>500 * cycle_length_months</t>
+  </si>
+  <si>
+    <t>80 * cycle_length_months</t>
+  </si>
+  <si>
+    <t>800 * cycle_length_months</t>
   </si>
 </sst>
 </file>
@@ -2713,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256F5870-E244-6849-9316-9568A14419E4}">
   <dimension ref="A1:H575"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B31" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" topLeftCell="B33" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9248,7 +9263,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9416,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>85</v>
@@ -9927,8 +9942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D78FB-8401-9E4C-9EB5-A7C336F3C948}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10239,8 +10254,8 @@
       <c r="D18" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="12">
-        <v>400</v>
+      <c r="F18" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -10256,8 +10271,8 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="12">
-        <v>200</v>
+      <c r="F19" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -10273,8 +10288,8 @@
       <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="12">
-        <v>400</v>
+      <c r="F20" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -10290,8 +10305,8 @@
       <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="12">
-        <v>200</v>
+      <c r="F21" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -10307,8 +10322,8 @@
       <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="12">
-        <v>500</v>
+      <c r="F22" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -10324,8 +10339,8 @@
       <c r="D23" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="12">
-        <v>80</v>
+      <c r="F23" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -10341,8 +10356,8 @@
       <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="12">
-        <v>800</v>
+      <c r="F24" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">

--- a/inst/models/markov_medium/model.xlsx
+++ b/inst/models/markov_medium/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/markov_medium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BEF77E-E1FF-1E45-BEA9-03D33A259B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97B2F71-2713-2F4E-B64C-3E1CC98E9C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="195">
   <si>
     <t>timeframe</t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t>800 * cycle_length_months</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -861,152 +870,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1175,6 +1038,152 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2270,12 +2279,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F298" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A1:F298" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:G298" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A1:G298" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{ABB4BCE4-A854-E744-AAD2-5973849DA96F}" name="type"/>
     <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
     <tableColumn id="6" xr3:uid="{0D833B11-05C8-C344-9243-E8CE8445DA4F}" name="destination"/>
     <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="17"/>
@@ -2285,30 +2295,30 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{675BB377-6413-AB41-B01E-1631A262CF09}" name="Table179" displayName="Table179" ref="A1:D298" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{675BB377-6413-AB41-B01E-1631A262CF09}" name="Table179" displayName="Table179" ref="A1:D298" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:D298" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AD0711B2-291E-C648-84E5-7BFD5EA3D942}" name="name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B6B7A7BA-93C6-C441-BB9D-441DF0E08D33}" name="display_name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{92422A5F-28A1-CF44-A634-BC3211BA40EB}" name="description" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{5D155D6D-CFFF-C84B-B95F-3C769EFAD6E0}" name="values" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AD0711B2-291E-C648-84E5-7BFD5EA3D942}" name="name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B6B7A7BA-93C6-C441-BB9D-441DF0E08D33}" name="display_name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{92422A5F-28A1-CF44-A634-BC3211BA40EB}" name="description" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5D155D6D-CFFF-C84B-B95F-3C769EFAD6E0}" name="values" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H21" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5A92BCCF-2D48-7D49-BC23-029150AE8ABB}" name="name" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{AD92914F-B30F-CE49-9D84-7B07FD950E75}" name="display_name" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{AC4425F3-F763-3646-9F56-DCDFD124A4D0}" name="description" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{2930608C-B19F-C641-8BE7-0C18493B68D0}" name="node" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{BCD7B83C-5C0C-9546-A895-99F1E3EA4FFD}" name="parent" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5A92BCCF-2D48-7D49-BC23-029150AE8ABB}" name="name" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{AD92914F-B30F-CE49-9D84-7B07FD950E75}" name="display_name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{AC4425F3-F763-3646-9F56-DCDFD124A4D0}" name="description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2930608C-B19F-C641-8BE7-0C18493B68D0}" name="node" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BCD7B83C-5C0C-9546-A895-99F1E3EA4FFD}" name="parent" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9940,10 +9950,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D78FB-8401-9E4C-9EB5-A7C336F3C948}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D17" sqref="D17:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9951,11 +9961,12 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -9966,16 +9977,19 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -9986,13 +10000,16 @@
         <v>94</v>
       </c>
       <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -10003,13 +10020,16 @@
         <v>95</v>
       </c>
       <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -10020,13 +10040,16 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -10037,13 +10060,16 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -10054,13 +10080,16 @@
         <v>98</v>
       </c>
       <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -10071,13 +10100,16 @@
         <v>99</v>
       </c>
       <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -10088,13 +10120,16 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -10105,13 +10140,16 @@
         <v>101</v>
       </c>
       <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -10122,13 +10160,16 @@
         <v>102</v>
       </c>
       <c r="D10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -10139,13 +10180,16 @@
         <v>103</v>
       </c>
       <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -10156,13 +10200,16 @@
         <v>104</v>
       </c>
       <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -10173,13 +10220,16 @@
         <v>105</v>
       </c>
       <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -10190,13 +10240,16 @@
         <v>106</v>
       </c>
       <c r="D14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -10207,13 +10260,16 @@
         <v>107</v>
       </c>
       <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -10223,11 +10279,14 @@
       <c r="C16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -10237,11 +10296,14 @@
       <c r="C17" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -10252,13 +10314,16 @@
         <v>110</v>
       </c>
       <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -10269,13 +10334,16 @@
         <v>111</v>
       </c>
       <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -10286,13 +10354,16 @@
         <v>112</v>
       </c>
       <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -10303,13 +10374,16 @@
         <v>113</v>
       </c>
       <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -10320,13 +10394,16 @@
         <v>114</v>
       </c>
       <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -10337,13 +10414,16 @@
         <v>115</v>
       </c>
       <c r="D23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -10354,13 +10434,16 @@
         <v>116</v>
       </c>
       <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -10371,13 +10454,16 @@
         <v>117</v>
       </c>
       <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -10388,13 +10474,16 @@
         <v>118</v>
       </c>
       <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -10405,13 +10494,16 @@
         <v>119</v>
       </c>
       <c r="D27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -10422,13 +10514,16 @@
         <v>120</v>
       </c>
       <c r="D28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -10439,13 +10534,16 @@
         <v>121</v>
       </c>
       <c r="D29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -10456,9 +10554,12 @@
         <v>122</v>
       </c>
       <c r="D30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="12">
+      <c r="G30" s="12">
         <v>25071</v>
       </c>
     </row>

--- a/inst/models/markov_medium/model.xlsx
+++ b/inst/models/markov_medium/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/markov_medium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/openqaly packages/openqaly/inst/models/markov_medium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C244F6C-18CA-574F-80B9-4B66B51576F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E2AA9-40FF-3945-A83F-E655CE63735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -492,12 +492,6 @@
     <t>apply_hr(gp_mort_surv, smr_palliative)</t>
   </si>
   <si>
-    <t>define_survival(dist = "weibull", shape = l1_relapse_shape, scale = l1_relapse_scale)</t>
-  </si>
-  <si>
-    <t>define_survival(dist = "weibull", shape = l2_relapse_shape, scale = l2_relapse_scale)</t>
-  </si>
-  <si>
     <t>values</t>
   </si>
   <si>
@@ -778,6 +772,12 @@
   </si>
   <si>
     <t>HSCT Ineligible</t>
+  </si>
+  <si>
+    <t>define_surv_param(dist = "weibull", shape = l1_relapse_shape, scale = l1_relapse_scale)</t>
+  </si>
+  <si>
+    <t>define_surv_param(dist = "weibull", shape = l2_relapse_shape, scale = l2_relapse_scale)</t>
   </si>
 </sst>
 </file>
@@ -2774,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H575"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B33" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:F47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B33" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -3884,7 +3884,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -3902,7 +3902,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -9100,7 +9100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -9137,10 +9137,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D2" s="11">
         <v>0.61</v>
@@ -9154,10 +9154,10 @@
         <v>74</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="11">
         <v>0.39</v>
@@ -9225,10 +9225,10 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" s="11" t="b">
         <v>1</v>
@@ -9239,10 +9239,10 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="11" t="b">
         <v>1</v>
@@ -9253,10 +9253,10 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" s="11" t="b">
         <v>1</v>
@@ -9357,7 +9357,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
@@ -9380,7 +9380,7 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -9401,7 +9401,7 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -9424,7 +9424,7 @@
         <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -9445,7 +9445,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -9468,7 +9468,7 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -9491,7 +9491,7 @@
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -9514,7 +9514,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -9726,7 +9726,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>32</v>
@@ -9743,13 +9743,13 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
         <v>75</v>
@@ -9763,13 +9763,13 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -9783,13 +9783,13 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
@@ -9803,13 +9803,13 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
         <v>76</v>
@@ -9823,13 +9823,13 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
         <v>77</v>
@@ -9843,13 +9843,13 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
         <v>78</v>
@@ -9863,13 +9863,13 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
@@ -9883,13 +9883,13 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
         <v>75</v>
@@ -9903,13 +9903,13 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
@@ -9923,13 +9923,13 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
         <v>80</v>
@@ -9943,13 +9943,13 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
@@ -9963,13 +9963,13 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
@@ -9983,13 +9983,13 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
         <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
         <v>78</v>
@@ -10003,13 +10003,13 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
         <v>81</v>
@@ -10023,16 +10023,16 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -10040,13 +10040,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>126</v>
@@ -10057,19 +10057,19 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
         <v>75</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -10077,19 +10077,19 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -10097,19 +10097,19 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -10117,19 +10117,19 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
         <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -10137,19 +10137,19 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -10157,19 +10157,19 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C23" t="s">
         <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
         <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -10177,19 +10177,19 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
         <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -10197,13 +10197,13 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -10217,13 +10217,13 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -10237,13 +10237,13 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
         <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27" t="s">
         <v>77</v>
@@ -10257,13 +10257,13 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
         <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
         <v>78</v>
@@ -10277,13 +10277,13 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s">
         <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
         <v>80</v>
@@ -10297,13 +10297,13 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
         <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
         <v>79</v>
@@ -10348,49 +10348,49 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -10559,266 +10559,266 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
         <v>177</v>
       </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
         <v>181</v>
       </c>
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
         <v>183</v>
       </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
         <v>194</v>
       </c>
-      <c r="B18" t="s">
-        <v>196</v>
-      </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
